--- a/doc/general-files/Quellen.xlsx
+++ b/doc/general-files/Quellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allgemein\Schule\Diplomarbeit\satNOGS\doc\general-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C1ACC3-E9E8-499F-8619-8CC23BCC76BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF742E8E-8B4A-4D71-AD34-1FA6A415CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
